--- a/ScreenTime_chenggg.xlsx
+++ b/ScreenTime_chenggg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21492\Desktop\BIOSTAT620\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21492\Desktop\BIOSTAT620\620_project_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4851865A-65C8-4097-A570-F068748982E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D521DBBE-3EED-4734-BC23-88A58A5C2DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3380" yWindow="3380" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="660" yWindow="3660" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="98">
   <si>
     <t>Date</t>
   </si>
@@ -399,6 +399,18 @@
   </si>
   <si>
     <t>5:20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>procrastination</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BMI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>course_hours</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -448,12 +460,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -734,10 +749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -749,10 +764,11 @@
     <col min="5" max="5" width="15.08203125" customWidth="1"/>
     <col min="6" max="6" width="11.08203125" customWidth="1"/>
     <col min="7" max="7" width="11.83203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -774,8 +790,17 @@
       <c r="G1" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="2">
         <v>45305</v>
       </c>
@@ -791,8 +816,17 @@
       <c r="G2" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="5">
+        <v>44</v>
+      </c>
+      <c r="I2">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="J2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="2">
         <v>45306</v>
       </c>
@@ -808,8 +842,17 @@
       <c r="G3" s="4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="5">
+        <v>44</v>
+      </c>
+      <c r="I3">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="J3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="2">
         <v>45307</v>
       </c>
@@ -825,8 +868,17 @@
       <c r="G4" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="5">
+        <v>44</v>
+      </c>
+      <c r="I4">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="J4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="2">
         <v>45308</v>
       </c>
@@ -842,8 +894,17 @@
       <c r="G5" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="5">
+        <v>44</v>
+      </c>
+      <c r="I5">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="J5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="2">
         <v>45309</v>
       </c>
@@ -859,8 +920,17 @@
       <c r="G6" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="5">
+        <v>44</v>
+      </c>
+      <c r="I6">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="J6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="2">
         <v>45310</v>
       </c>
@@ -876,8 +946,17 @@
       <c r="G7" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="5">
+        <v>44</v>
+      </c>
+      <c r="I7">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="J7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="2">
         <v>45311</v>
       </c>
@@ -893,8 +972,17 @@
       <c r="G8" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="5">
+        <v>44</v>
+      </c>
+      <c r="I8">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="J8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="2">
         <v>45312</v>
       </c>
@@ -910,8 +998,17 @@
       <c r="G9" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="5">
+        <v>44</v>
+      </c>
+      <c r="I9">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="J9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="2">
         <v>45313</v>
       </c>
@@ -927,8 +1024,17 @@
       <c r="G10" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="5">
+        <v>44</v>
+      </c>
+      <c r="I10">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="J10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="2">
         <v>45314</v>
       </c>
@@ -944,8 +1050,17 @@
       <c r="G11" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="5">
+        <v>44</v>
+      </c>
+      <c r="I11">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="J11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="2">
         <v>45315</v>
       </c>
@@ -961,8 +1076,17 @@
       <c r="G12" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="5">
+        <v>44</v>
+      </c>
+      <c r="I12">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="J12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="2">
         <v>45316</v>
       </c>
@@ -978,8 +1102,17 @@
       <c r="G13" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" s="5">
+        <v>44</v>
+      </c>
+      <c r="I13">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="J13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="2">
         <v>45317</v>
       </c>
@@ -995,8 +1128,17 @@
       <c r="G14" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" s="5">
+        <v>44</v>
+      </c>
+      <c r="I14">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="J14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="2">
         <v>45318</v>
       </c>
@@ -1012,8 +1154,17 @@
       <c r="G15" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" s="5">
+        <v>44</v>
+      </c>
+      <c r="I15">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="J15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="2">
         <v>45319</v>
       </c>
@@ -1029,8 +1180,17 @@
       <c r="G16" s="4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" s="5">
+        <v>44</v>
+      </c>
+      <c r="I16">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="J16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="2">
         <v>45320</v>
       </c>
@@ -1046,8 +1206,17 @@
       <c r="G17" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" s="5">
+        <v>44</v>
+      </c>
+      <c r="I17">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="J17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="2">
         <v>45321</v>
       </c>
@@ -1063,8 +1232,17 @@
       <c r="G18" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" s="5">
+        <v>44</v>
+      </c>
+      <c r="I18">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="J18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="2">
         <v>45322</v>
       </c>
@@ -1080,8 +1258,17 @@
       <c r="G19" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" s="5">
+        <v>44</v>
+      </c>
+      <c r="I19">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="J19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="2">
         <v>45323</v>
       </c>
@@ -1097,8 +1284,17 @@
       <c r="G20" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" s="5">
+        <v>44</v>
+      </c>
+      <c r="I20">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="J20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="2">
         <v>45324</v>
       </c>
@@ -1114,8 +1310,17 @@
       <c r="G21" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21" s="5">
+        <v>44</v>
+      </c>
+      <c r="I21">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="J21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="2">
         <v>45325</v>
       </c>
@@ -1131,8 +1336,17 @@
       <c r="G22" s="4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22" s="5">
+        <v>44</v>
+      </c>
+      <c r="I22">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="J22">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="2">
         <v>45326</v>
       </c>
@@ -1148,8 +1362,17 @@
       <c r="G23" s="4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" s="5">
+        <v>44</v>
+      </c>
+      <c r="I23">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="J23">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="2">
         <v>45327</v>
       </c>
@@ -1165,8 +1388,17 @@
       <c r="G24" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24" s="5">
+        <v>44</v>
+      </c>
+      <c r="I24">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="J24">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="2">
         <v>45328</v>
       </c>
@@ -1182,8 +1414,17 @@
       <c r="G25" s="4" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25" s="5">
+        <v>44</v>
+      </c>
+      <c r="I25">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="J25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="2">
         <v>45329</v>
       </c>
@@ -1199,8 +1440,17 @@
       <c r="G26" s="4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26" s="5">
+        <v>44</v>
+      </c>
+      <c r="I26">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="J26">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="2">
         <v>45330</v>
       </c>
@@ -1216,8 +1466,17 @@
       <c r="G27" s="4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27" s="5">
+        <v>44</v>
+      </c>
+      <c r="I27">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="J27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="2">
         <v>45331</v>
       </c>
@@ -1233,8 +1492,17 @@
       <c r="G28" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28" s="5">
+        <v>44</v>
+      </c>
+      <c r="I28">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="J28">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="2">
         <v>45332</v>
       </c>
@@ -1250,8 +1518,17 @@
       <c r="G29" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29" s="5">
+        <v>44</v>
+      </c>
+      <c r="I29">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="J29">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="2">
         <v>45333</v>
       </c>
@@ -1267,8 +1544,17 @@
       <c r="G30" s="4" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30" s="5">
+        <v>44</v>
+      </c>
+      <c r="I30">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="J30">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="2">
         <v>45334</v>
       </c>
@@ -1284,8 +1570,17 @@
       <c r="G31" s="4" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31" s="5">
+        <v>44</v>
+      </c>
+      <c r="I31">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="J31">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="2">
         <v>45335</v>
       </c>
@@ -1301,8 +1596,17 @@
       <c r="G32" s="4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32" s="5">
+        <v>44</v>
+      </c>
+      <c r="I32">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="J32">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="2">
         <v>45336</v>
       </c>
@@ -1318,8 +1622,17 @@
       <c r="G33" s="4" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33" s="5">
+        <v>44</v>
+      </c>
+      <c r="I33">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="J33">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="2">
         <v>45337</v>
       </c>
@@ -1335,8 +1648,17 @@
       <c r="G34" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34" s="5">
+        <v>44</v>
+      </c>
+      <c r="I34">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="J34">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="2">
         <v>45338</v>
       </c>
@@ -1352,20 +1674,91 @@
       <c r="G35" s="4" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35" s="5">
+        <v>44</v>
+      </c>
+      <c r="I35">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="J35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="2">
         <v>45339</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="H36" s="5">
+        <v>44</v>
+      </c>
+      <c r="I36">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="J36">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="2">
         <v>45340</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37" s="5">
+        <v>44</v>
+      </c>
+      <c r="I37">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="J37">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="2">
         <v>45341</v>
+      </c>
+      <c r="H38" s="5">
+        <v>44</v>
+      </c>
+      <c r="I38">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="J38">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="2">
+        <v>45342</v>
+      </c>
+      <c r="I39">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="J39">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="2">
+        <v>45343</v>
+      </c>
+      <c r="I40">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="J40">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="2">
+        <v>45344</v>
+      </c>
+      <c r="J41">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="2">
+        <v>45345</v>
       </c>
     </row>
   </sheetData>
